--- a/Data/yatzo alcohol/yatzo_test2/yatzo_test2_TE_DataEntryForm.xlsx
+++ b/Data/yatzo alcohol/yatzo_test2/yatzo_test2_TE_DataEntryForm.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="167">
   <si>
     <t>HIGH POWER TEST (COLD START)</t>
   </si>
@@ -607,20 +607,48 @@
   </si>
   <si>
     <t>8.31.22</t>
+  </si>
+  <si>
+    <t>Weighting for voluntary performance Tiers</t>
+  </si>
+  <si>
+    <t>High Power</t>
+  </si>
+  <si>
+    <t>weight_hp</t>
+  </si>
+  <si>
+    <t>Med Power</t>
+  </si>
+  <si>
+    <t>weight_mp</t>
+  </si>
+  <si>
+    <t>Low Power</t>
+  </si>
+  <si>
+    <t>weight_lp</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>weight_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +713,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -730,7 +764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1106,6 +1140,67 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1116,7 +1211,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1309,6 +1404,129 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="21" fontId="10" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="21" fontId="10" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="21" fontId="10" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="21" fontId="10" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="21" fontId="10" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1318,128 +1536,40 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="21" fontId="10" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="21" fontId="10" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="21" fontId="10" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="21" fontId="10" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="21" fontId="10" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1761,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,13 +1937,13 @@
       <c r="B2" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
       <c r="H2" s="41"/>
       <c r="I2" s="78" t="s">
         <v>137</v>
@@ -1835,13 +1965,13 @@
       <c r="B3" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="137">
         <v>2</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
       <c r="H3" s="41"/>
       <c r="I3" s="81"/>
       <c r="J3" s="57"/>
@@ -1861,13 +1991,13 @@
       <c r="B4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
       <c r="H4" s="41"/>
       <c r="I4" s="81"/>
       <c r="J4" s="57"/>
@@ -1887,13 +2017,13 @@
       <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
       <c r="H5" s="41"/>
       <c r="I5" s="59"/>
       <c r="J5" s="57"/>
@@ -1913,11 +2043,11 @@
       <c r="B6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
       <c r="H6" s="41"/>
       <c r="I6" s="89" t="s">
         <v>138</v>
@@ -1939,13 +2069,13 @@
       <c r="B7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="41"/>
       <c r="I7" s="81"/>
       <c r="J7" s="57"/>
@@ -2360,14 +2490,14 @@
         <v>119</v>
       </c>
       <c r="C22" s="49"/>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="94" t="s">
+      <c r="E22" s="136"/>
+      <c r="F22" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="95"/>
+      <c r="G22" s="136"/>
       <c r="H22" s="41"/>
       <c r="I22" s="55"/>
       <c r="J22" s="76"/>
@@ -2602,28 +2732,28 @@
         <v>3</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="97" t="s">
+      <c r="F30" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="98"/>
+      <c r="G30" s="130"/>
       <c r="H30" s="2"/>
       <c r="I30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="97" t="s">
+      <c r="K30" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="98"/>
+      <c r="L30" s="130"/>
       <c r="M30" s="2"/>
       <c r="N30" s="14" t="s">
         <v>3</v>
       </c>
       <c r="O30" s="14"/>
-      <c r="P30" s="97" t="s">
+      <c r="P30" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="Q30" s="101"/>
+      <c r="Q30" s="133"/>
       <c r="R30" s="41"/>
       <c r="S30" s="41"/>
       <c r="T30" s="41"/>
@@ -2634,24 +2764,24 @@
       <c r="C31" s="3"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="99" t="s">
+      <c r="F31" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="100"/>
+      <c r="G31" s="132"/>
       <c r="H31" s="2"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="99" t="s">
+      <c r="K31" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="L31" s="100"/>
+      <c r="L31" s="132"/>
       <c r="M31" s="2"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="99" t="s">
+      <c r="P31" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="Q31" s="102"/>
+      <c r="Q31" s="134"/>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
       <c r="T31" s="41"/>
@@ -2720,33 +2850,33 @@
       <c r="E33" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="113">
+      <c r="F33" s="104">
         <v>0.52638888888888891</v>
       </c>
       <c r="G33" s="64" t="s">
         <v>72</v>
       </c>
       <c r="H33" s="61"/>
-      <c r="I33" s="118">
+      <c r="I33" s="109">
         <v>0.53113425925925928</v>
       </c>
       <c r="J33" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K33" s="125">
+      <c r="K33" s="116">
         <v>0.55543981481481486</v>
       </c>
       <c r="L33" s="64" t="s">
         <v>94</v>
       </c>
       <c r="M33" s="61"/>
-      <c r="N33" s="130">
+      <c r="N33" s="121">
         <v>0.56078703703703703</v>
       </c>
       <c r="O33" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="P33" s="134">
+      <c r="P33" s="125">
         <v>0.58509259259259261</v>
       </c>
       <c r="Q33" s="64" t="s">
@@ -2764,39 +2894,39 @@
       <c r="C34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="110">
+      <c r="D34" s="101">
         <v>3.7269999999999999</v>
       </c>
       <c r="E34" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="115">
+      <c r="F34" s="106">
         <v>3.5859999999999999</v>
       </c>
       <c r="G34" s="65" t="s">
         <v>52</v>
       </c>
       <c r="H34" s="37"/>
-      <c r="I34" s="122">
+      <c r="I34" s="113">
         <v>3.5859999999999999</v>
       </c>
       <c r="J34" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="127">
+      <c r="K34" s="118">
         <v>3.5129999999999999</v>
       </c>
       <c r="L34" s="65" t="s">
         <v>74</v>
       </c>
       <c r="M34" s="37"/>
-      <c r="N34" s="132">
+      <c r="N34" s="123">
         <v>3.5129999999999999</v>
       </c>
       <c r="O34" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="P34" s="135">
+      <c r="P34" s="126">
         <v>3.4670000000000001</v>
       </c>
       <c r="Q34" s="65" t="s">
@@ -2814,39 +2944,39 @@
       <c r="C35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="107">
+      <c r="D35" s="98">
         <v>21.4</v>
       </c>
       <c r="E35" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="114">
+      <c r="F35" s="105">
         <v>94.7</v>
       </c>
       <c r="G35" s="65" t="s">
         <v>67</v>
       </c>
       <c r="H35" s="34"/>
-      <c r="I35" s="120">
+      <c r="I35" s="111">
         <v>20.9</v>
       </c>
       <c r="J35" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="K35" s="126">
+      <c r="K35" s="117">
         <v>72</v>
       </c>
       <c r="L35" s="65" t="s">
         <v>89</v>
       </c>
       <c r="M35" s="34"/>
-      <c r="N35" s="131">
+      <c r="N35" s="122">
         <v>21.4</v>
       </c>
       <c r="O35" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="P35" s="136">
+      <c r="P35" s="127">
         <v>55.3</v>
       </c>
       <c r="Q35" s="65" t="s">
@@ -2864,29 +2994,29 @@
       <c r="C36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="103"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="111"/>
+      <c r="F36" s="102"/>
       <c r="G36" s="65" t="s">
         <v>68</v>
       </c>
       <c r="H36" s="34"/>
-      <c r="I36" s="116"/>
+      <c r="I36" s="107"/>
       <c r="J36" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K36" s="123"/>
+      <c r="K36" s="114"/>
       <c r="L36" s="65" t="s">
         <v>90</v>
       </c>
       <c r="M36" s="34"/>
-      <c r="N36" s="129"/>
+      <c r="N36" s="120"/>
       <c r="O36" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="P36" s="133"/>
+      <c r="P36" s="124"/>
       <c r="Q36" s="65" t="s">
         <v>112</v>
       </c>
@@ -2902,29 +3032,29 @@
       <c r="C37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="103"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="111"/>
+      <c r="F37" s="102"/>
       <c r="G37" s="65" t="s">
         <v>69</v>
       </c>
       <c r="H37" s="34"/>
-      <c r="I37" s="116"/>
+      <c r="I37" s="107"/>
       <c r="J37" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="K37" s="123"/>
+      <c r="K37" s="114"/>
       <c r="L37" s="65" t="s">
         <v>91</v>
       </c>
       <c r="M37" s="34"/>
-      <c r="N37" s="129"/>
+      <c r="N37" s="120"/>
       <c r="O37" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="P37" s="133"/>
+      <c r="P37" s="124"/>
       <c r="Q37" s="65" t="s">
         <v>113</v>
       </c>
@@ -2940,29 +3070,29 @@
       <c r="C38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="103"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="111"/>
+      <c r="F38" s="102"/>
       <c r="G38" s="65" t="s">
         <v>70</v>
       </c>
       <c r="H38" s="34"/>
-      <c r="I38" s="116"/>
+      <c r="I38" s="107"/>
       <c r="J38" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="K38" s="123"/>
+      <c r="K38" s="114"/>
       <c r="L38" s="65" t="s">
         <v>92</v>
       </c>
       <c r="M38" s="34"/>
-      <c r="N38" s="129"/>
+      <c r="N38" s="120"/>
       <c r="O38" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="P38" s="133"/>
+      <c r="P38" s="124"/>
       <c r="Q38" s="65" t="s">
         <v>114</v>
       </c>
@@ -2978,39 +3108,39 @@
       <c r="C39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="109">
+      <c r="D39" s="100">
         <v>7.2709999999999999</v>
       </c>
       <c r="E39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="115">
+      <c r="F39" s="106">
         <v>6.9249999999999998</v>
       </c>
       <c r="G39" s="65" t="s">
         <v>59</v>
       </c>
       <c r="H39" s="37"/>
-      <c r="I39" s="122">
+      <c r="I39" s="113">
         <v>7.2709999999999999</v>
       </c>
       <c r="J39" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="K39" s="127">
+      <c r="K39" s="118">
         <v>7.165</v>
       </c>
       <c r="L39" s="65" t="s">
         <v>81</v>
       </c>
       <c r="M39" s="37"/>
-      <c r="N39" s="132">
+      <c r="N39" s="123">
         <v>7.2709999999999999</v>
       </c>
       <c r="O39" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="P39" s="137">
+      <c r="P39" s="128">
         <v>7.2309999999999999</v>
       </c>
       <c r="Q39" s="65" t="s">
@@ -3028,25 +3158,25 @@
       <c r="C40" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="103"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="111"/>
+      <c r="F40" s="102"/>
       <c r="G40" s="65" t="s">
         <v>60</v>
       </c>
       <c r="H40" s="37"/>
-      <c r="I40" s="116"/>
+      <c r="I40" s="107"/>
       <c r="J40" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="K40" s="123"/>
+      <c r="K40" s="114"/>
       <c r="L40" s="65" t="s">
         <v>82</v>
       </c>
       <c r="M40" s="37"/>
-      <c r="N40" s="128"/>
+      <c r="N40" s="119"/>
       <c r="O40" s="60" t="s">
         <v>100</v>
       </c>
@@ -3066,25 +3196,25 @@
       <c r="C41" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="104"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="112"/>
+      <c r="F41" s="103"/>
       <c r="G41" s="65" t="s">
         <v>61</v>
       </c>
       <c r="H41" s="37"/>
-      <c r="I41" s="117"/>
+      <c r="I41" s="108"/>
       <c r="J41" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="K41" s="124"/>
+      <c r="K41" s="115"/>
       <c r="L41" s="65" t="s">
         <v>83</v>
       </c>
       <c r="M41" s="37"/>
-      <c r="N41" s="128"/>
+      <c r="N41" s="119"/>
       <c r="O41" s="60" t="s">
         <v>101</v>
       </c>
@@ -3104,25 +3234,25 @@
       <c r="C42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="105"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="112"/>
+      <c r="F42" s="103"/>
       <c r="G42" s="65" t="s">
         <v>62</v>
       </c>
       <c r="H42" s="37"/>
-      <c r="I42" s="117"/>
+      <c r="I42" s="108"/>
       <c r="J42" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="K42" s="124"/>
+      <c r="K42" s="115"/>
       <c r="L42" s="65" t="s">
         <v>84</v>
       </c>
       <c r="M42" s="37"/>
-      <c r="N42" s="128"/>
+      <c r="N42" s="119"/>
       <c r="O42" s="60" t="s">
         <v>102</v>
       </c>
@@ -3142,7 +3272,7 @@
       <c r="C43" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="106"/>
+      <c r="D43" s="97"/>
       <c r="E43" s="60" t="s">
         <v>53</v>
       </c>
@@ -3151,7 +3281,7 @@
         <v>54</v>
       </c>
       <c r="H43" s="37"/>
-      <c r="I43" s="119"/>
+      <c r="I43" s="110"/>
       <c r="J43" s="60" t="s">
         <v>75</v>
       </c>
@@ -3180,14 +3310,14 @@
       <c r="C44" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="108"/>
+      <c r="D44" s="99"/>
       <c r="E44" s="68" t="s">
         <v>142</v>
       </c>
       <c r="F44" s="69"/>
       <c r="G44" s="70"/>
       <c r="H44" s="37"/>
-      <c r="I44" s="121"/>
+      <c r="I44" s="112"/>
       <c r="J44" s="68" t="s">
         <v>143</v>
       </c>
@@ -3260,10 +3390,12 @@
     </row>
     <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
+      <c r="B47" s="138" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="139"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="141"/>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
@@ -3282,10 +3414,16 @@
     </row>
     <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="145" t="s">
+        <v>9</v>
+      </c>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
@@ -3304,10 +3442,16 @@
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
+      <c r="B49" s="146" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="147"/>
+      <c r="D49" s="148">
+        <v>1</v>
+      </c>
+      <c r="E49" s="149" t="s">
+        <v>160</v>
+      </c>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
@@ -3326,10 +3470,16 @@
     </row>
     <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
+      <c r="B50" s="150" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="147"/>
+      <c r="D50" s="148">
+        <v>1</v>
+      </c>
+      <c r="E50" s="151" t="s">
+        <v>162</v>
+      </c>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
@@ -3348,10 +3498,16 @@
     </row>
     <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
+      <c r="B51" s="150" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="147"/>
+      <c r="D51" s="148">
+        <v>1</v>
+      </c>
+      <c r="E51" s="151" t="s">
+        <v>164</v>
+      </c>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
@@ -3370,10 +3526,17 @@
     </row>
     <row r="52" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
+      <c r="B52" s="152" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="153"/>
+      <c r="D52" s="154">
+        <f>SUM(D49:D51)</f>
+        <v>3</v>
+      </c>
+      <c r="E52" s="155" t="s">
+        <v>166</v>
+      </c>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
@@ -4140,12 +4303,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="C2:G2"/>
@@ -4154,6 +4311,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
